--- a/binfiles/data.xlsx
+++ b/binfiles/data.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>first version</t>
+  </si>
+  <si>
+    <t>second master</t>
   </si>
 </sst>
 </file>
@@ -358,7 +361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -371,6 +374,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/binfiles/data.xlsx
+++ b/binfiles/data.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>first version</t>
+  </si>
+  <si>
+    <t>asdfasd</t>
   </si>
 </sst>
 </file>
@@ -358,17 +361,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/binfiles/data.xlsx
+++ b/binfiles/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>first version</t>
   </si>
   <si>
     <t>second master</t>
+  </si>
+  <si>
+    <t>third master</t>
   </si>
 </sst>
 </file>
@@ -361,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,6 +382,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/binfiles/data.xlsx
+++ b/binfiles/data.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>first version</t>
   </si>
   <si>
     <t>second master</t>
+  </si>
+  <si>
+    <t>second branch</t>
   </si>
 </sst>
 </file>
@@ -361,22 +364,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
